--- a/data/paper_stats/activity_relation/gateway_extraction/rc=brcnn_vote_comparison.xlsx
+++ b/data/paper_stats/activity_relation/gateway_extraction/rc=brcnn_vote_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janek\Development\Git\master-thesis\data\paper_stats\activity_relation\gateway_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15924A4D-3F91-4138-A7F0-845D9E30B679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4548801-6F90-44BE-943C-3741F52DB136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C718344E-8BA2-42F4-8E7B-426A812050C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C718344E-8BA2-42F4-8E7B-426A812050C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -95,13 +95,13 @@
     <t>Limited to start</t>
   </si>
   <si>
-    <t>BRCNN 128 Seed 10</t>
-  </si>
-  <si>
     <t>confidence score</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>BRCNN 128</t>
   </si>
 </sst>
 </file>
@@ -679,9 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412361FA-32F9-409E-A3D6-64F986D899D7}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -711,13 +709,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -743,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
@@ -769,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
@@ -796,7 +794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
@@ -822,7 +820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
@@ -848,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
@@ -877,7 +875,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
@@ -903,7 +901,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
@@ -921,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
@@ -929,7 +927,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>9</v>
@@ -955,7 +953,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
@@ -981,7 +979,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
@@ -999,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="6">
         <v>1</v>
@@ -1007,7 +1005,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>12</v>
@@ -1022,7 +1020,7 @@
         <v>0.62</v>
       </c>
       <c r="F13" s="8">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="G13" s="17">
         <v>0.7</v>
